--- a/ML_Model_Scores.xlsx
+++ b/ML_Model_Scores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\socce\OneDrive\Documents\Ideas\Heart Disease\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64ECB4CC-4E2B-4457-B992-DAC129BF8121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6808F53A-A30F-4A46-B1BF-EB8B3F32654E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{FFBD86D6-D963-40C2-B591-271584CB0666}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Accuracy</t>
   </si>
@@ -50,10 +50,22 @@
     <t>F1 Score</t>
   </si>
   <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>KNN</t>
+    <t>KNN (convert categories to numbers)</t>
+  </si>
+  <si>
+    <t>KNN (remove categorical variables)</t>
+  </si>
+  <si>
+    <t>KNN (K=1000, no categories)</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Decision Tree (No hyperparameters stated)</t>
+  </si>
+  <si>
+    <t>Decision Tree (max_depth=5, min samples=15)</t>
   </si>
 </sst>
 </file>
@@ -428,52 +440,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1707F10-32EE-4163-8E75-AEE7FFCB7CCC}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0.47795414462081098</v>
       </c>
+      <c r="C2">
+        <v>0.490299823633156</v>
+      </c>
+      <c r="D2">
+        <v>0.516754850088183</v>
+      </c>
+      <c r="E2">
+        <v>0.49382716049382702</v>
+      </c>
+      <c r="F2">
+        <v>0.50970017636684295</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>0.48288973384030398</v>
       </c>
+      <c r="C3">
+        <v>0.49606299212598398</v>
+      </c>
+      <c r="D3">
+        <v>0.51447661469933104</v>
+      </c>
+      <c r="E3">
+        <v>0.51340996168582298</v>
+      </c>
+      <c r="F3">
+        <v>0.51243781094527296</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>0.44250871080139298</v>
       </c>
+      <c r="C4">
+        <v>0.439024390243902</v>
+      </c>
+      <c r="D4">
+        <v>0.80487804878048697</v>
+      </c>
+      <c r="E4">
+        <v>0.45578231292517002</v>
+      </c>
+      <c r="F4">
+        <v>0.71527777777777701</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>0.46181818181818102</v>
+      </c>
+      <c r="C5">
+        <v>0.46580406654343798</v>
+      </c>
+      <c r="D5">
+        <v>0.62771739130434701</v>
+      </c>
+      <c r="E5">
+        <v>0.482882882882882</v>
+      </c>
+      <c r="F5">
+        <v>0.59710144927536202</v>
       </c>
     </row>
   </sheetData>
